--- a/1.3.0_axioms.xlsx
+++ b/1.3.0_axioms.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,11 @@
           <t>status</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -510,6 +515,7 @@
           <t>draft</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,6 +553,7 @@
           <t>draft</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -584,6 +591,7 @@
           <t>draft</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -619,6 +627,49 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>draft</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AX2025102612061801</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>QQAZMNZX</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:18.779352+00:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:18.801861+00:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>QQAZMNZX</t>
         </is>
       </c>
     </row>
@@ -633,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,6 +718,31 @@
           <t>updated_at</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>verse_key_norm</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>description_text</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +768,11 @@
           <t>2025-10-23T00:57:36.444234+00:00</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -736,6 +817,11 @@
           <t>2025-10-23T00:57:36.464644+00:00</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -761,6 +847,11 @@
           <t>2025-10-23T01:31:15.297289+00:00</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -804,6 +895,11 @@
           <t>2025-10-23T01:31:15.316574+00:00</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -829,6 +925,11 @@
           <t>2025-10-23T01:31:25.915116+00:00</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -872,6 +973,11 @@
           <t>2025-10-23T01:31:25.936043+00:00</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -897,6 +1003,11 @@
           <t>2025-10-26T01:59:00.186369+00:00</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -941,6 +1052,203 @@
           <t>2025-10-26T01:59:00.207127+00:00</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AX2025102612061801</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>verse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MZAS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:18.888606+00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>verse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>MZAS</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:18.888606+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AX2025102612061801</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>axiom</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MZAS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:18.911530+00:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>axiom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>MZAS</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:18.911530+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AX2025102601590001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>verse</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MZAS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:41.993952+00:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>verse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>MZAS</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:41.993952+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AX2025102601590001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>axiom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MZAS</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:42.018983+00:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>axiom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>MZAS</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:42.018983+00:00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -953,7 +1261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,6 +1305,21 @@
           <t>created_at</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>link_created_at</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>link_updated_at</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1026,6 +1349,9 @@
           <t>2025-10-23T00:57:36.482361+00:00</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1055,6 +1381,9 @@
           <t>2025-10-23T00:57:42.193193+00:00</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1084,6 +1413,9 @@
           <t>2025-10-23T01:31:15.335121+00:00</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1113,6 +1445,9 @@
           <t>2025-10-23T01:31:21.304736+00:00</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1142,6 +1477,9 @@
           <t>2025-10-23T01:31:25.954430+00:00</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1171,6 +1509,9 @@
           <t>2025-10-26T01:59:00.228336+00:00</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1198,6 +1539,97 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>2025-10-26T01:59:41.957546+00:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AX2025102612061801</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>primary</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:18.867505+00:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>darpan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:18.867505+00:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:18.867505+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AX2025102601590001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>supporting</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:41.966369+00:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>darpan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:41.966369+00:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:06:41.966369+00:00</t>
         </is>
       </c>
     </row>

--- a/1.3.0_axioms.xlsx
+++ b/1.3.0_axioms.xlsx
@@ -1,145 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\vije1711\Projects\2.1 Main Software\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FBFE4A-8B8B-414A-BDD1-6CBE6F4E01CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Axioms" sheetId="1" r:id="rId1"/>
-    <sheet name="AxiomDescriptions" sheetId="2" r:id="rId2"/>
-    <sheet name="AxiomContributions" sheetId="3" r:id="rId3"/>
-    <sheet name="AxiomKeywords" sheetId="4" r:id="rId4"/>
-    <sheet name="AxiomWorkqueue" sheetId="5" r:id="rId5"/>
+    <sheet name="Axioms" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AxiomDescriptions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AxiomContributions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AxiomKeywords" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AxiomWorkqueue" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
-  <si>
-    <t>axiom_id</t>
-  </si>
-  <si>
-    <t>short_axiom</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description_type</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>verse_key_norm</t>
-  </si>
-  <si>
-    <t>description_text</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>verse</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>translation_revision_seen</t>
-  </si>
-  <si>
-    <t>link_type</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>link_created_at</t>
-  </si>
-  <si>
-    <t>link_updated_at</t>
-  </si>
-  <si>
-    <t>literal_synonyms</t>
-  </si>
-  <si>
-    <t>literal_antonyms</t>
-  </si>
-  <si>
-    <t>spiritual_synonyms</t>
-  </si>
-  <si>
-    <t>spiritual_antonyms</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>normalized_key</t>
-  </si>
-  <si>
-    <t>work_id</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,43 +50,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -478,49 +424,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>axiom_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>short_axiom</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -529,57 +485,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>axiom_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>description_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rev</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>verse_key_norm</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>description_text</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -588,57 +556,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.06640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>axiom_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>verse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>verse_key_norm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>translation_revision_seen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>link_type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>link_created_at</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>link_updated_at</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -647,61 +627,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>axiom_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>literal_synonyms</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>literal_antonyms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>spiritual_synonyms</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>spiritual_antonyms</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_key</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -710,41 +703,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>work_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>axiom_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
       </c>
     </row>
   </sheetData>
